--- a/bank statement generator/bank_statements/statement_34.xlsx
+++ b/bank statement generator/bank_statements/statement_34.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 17.06.2024</t>
+          <t>KONTOSTAND AM 01.06.2025</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,132 +759,132 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>18.06.</t>
+          <t>03.06.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>19.06.</t>
+          <t>04.06.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>RECHNUNG VODAFONE GMBH 1233299</t>
+          <t>BEITRAG Allianz SE K-45725151</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>40,19-</t>
+          <t>54,62-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>21.06.</t>
+          <t>06.06.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>22.06.</t>
+          <t>07.06.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>PAYPAL GWHXVP</t>
+          <t>EBAY MKTPLC EU TRDJOD</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>77,63-</t>
+          <t>93,05-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>23.06.</t>
+          <t>08.06.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>24.06.</t>
+          <t>09.06.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./23.06 REWE RO</t>
+          <t>RECHNUNG VODAFONE GMBH 46721599</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>120,54-</t>
+          <t>38,87-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>25.06.</t>
+          <t>11.06.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>26.06.</t>
+          <t>12.06.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>EBAY MKTPLC EU ONLVGJ</t>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>116,18-</t>
+          <t>24,64-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>27.06.</t>
+          <t>13.06.</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>28.06.</t>
+          <t>14.06.</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>KARTENZAHLUNG JET TANKSTELLE</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 98041088</t>
         </is>
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>71,46-</t>
+          <t>87,31-</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>30.06.</t>
+          <t>17.06.</t>
         </is>
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>01.07.</t>
+          <t>18.06.</t>
         </is>
       </c>
       <c r="D11" s="8" t="inlineStr">
         <is>
-          <t>PAYPAL PVWKKY</t>
+          <t>MCDONALDS Saarlouis</t>
         </is>
       </c>
       <c r="E11" s="17" t="inlineStr">
         <is>
-          <t>82,67-</t>
+          <t>25,61-</t>
         </is>
       </c>
     </row>
@@ -893,12 +893,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 03.07.2024</t>
+          <t>KONTOSTAND AM 22.06.2025</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>508,67-</t>
+          <t>324,10-</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 13.07.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 02.07.2025</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
